--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,15 @@
       </rPr>
       <t>Availity_Credential</t>
     </r>
+  </si>
+  <si>
+    <t>SharePoint_URL</t>
+  </si>
+  <si>
+    <t>https://login.microsoftonline.com/52bbed5d-beae-4b24-8cfa-9d2cf4a8bf7d/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=5FC1F9F6FF39D63D212374610DC1E2A3EDF47AD97C05F895%2D5F59BBD227381507F1A0AB2CBB446550F2D2092976ED390FEBD5633FCDF8A1D9&amp;redirect%5Furi=https%3A%2F%2Fnmaiom%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=ca7cd3a0%2D2031%2D4000%2D1e34%2D031665188a1e</t>
+  </si>
+  <si>
+    <t>SharePoint_Credential</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -803,12 +812,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,13 +1141,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4454545454545" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="60.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="81.4454545454546" customWidth="1"/>
     <col min="4" max="26" width="8.66363636363636" customWidth="1"/>
   </cols>
@@ -1223,8 +1233,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -2217,6 +2241,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://apps.availity.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://login.microsoftonline.com/52bbed5d-beae-4b24-8cfa-9d2cf4a8bf7d/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=5FC1F9F6FF39D63D212374610DC1E2A3EDF47AD97C05F895%2D5F59BBD227381507F1A0AB2CBB446550F2D2092976ED390FEBD5633FCDF8A1D9&amp;redirect%5Furi=https%3A%2F%2Fnmaiom%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=ca7cd3a0%2D2031%2D4000%2D1e34%2D031665188a1e" tooltip="https://login.microsoftonline.com/52bbed5d-beae-4b24-8cfa-9d2cf4a8bf7d/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D0000000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2277,138 +2302,138 @@
     </row>
     <row r="2" ht="29" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="43.5" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="29" spans="1:3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -3410,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
